--- a/web-app/spreadsheet/RIS_Bulkload_Schematic.xlsx
+++ b/web-app/spreadsheet/RIS_Bulkload_Schematic.xlsx
@@ -9,7 +9,6 @@
   <sheets>
     <sheet name="RIS" sheetId="5" r:id="rId1"/>
     <sheet name="Dept" sheetId="6" r:id="rId2"/>
-    <sheet name="Sheet6" sheetId="9" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="CDMService">#REF!</definedName>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="306">
   <si>
     <t>Consultation Mode</t>
   </si>
@@ -910,6 +909,39 @@
   </si>
   <si>
     <t>Fill in all the relevant cells.  Copy and paste across for bulk input.  Do not leave spaces between columns or delete rows. DO NOT CHANGE THE FORMAT.</t>
+  </si>
+  <si>
+    <t>Sponsor</t>
+  </si>
+  <si>
+    <t>Wharton</t>
+  </si>
+  <si>
+    <t>Vet</t>
+  </si>
+  <si>
+    <t>Nursing</t>
+  </si>
+  <si>
+    <t>Med</t>
+  </si>
+  <si>
+    <t>Dental</t>
+  </si>
+  <si>
+    <t>SP2</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Annenberg</t>
+  </si>
+  <si>
+    <t>Law</t>
+  </si>
+  <si>
+    <t>Coursera</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1106,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1116,6 +1148,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1419,8 +1454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -1471,7 +1506,7 @@
       <c r="B8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="25" t="s">
         <v>26</v>
       </c>
       <c r="T8" s="1" t="s">
@@ -1632,9 +1667,7 @@
       <c r="B36" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="C36" s="10"/>
     </row>
     <row r="37" spans="2:3" s="1" customFormat="1" ht="15">
       <c r="B37" s="6"/>
@@ -1683,15 +1716,27 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Dept!$H$4:$H$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>C36</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G223"/>
+  <dimension ref="B2:H223"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D9"/>
+      <selection activeCell="H3" sqref="H3:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1703,8 +1748,8 @@
     <col min="7" max="7" width="39.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="15.75" thickBot="1"/>
-    <row r="3" spans="2:7" ht="16.5" thickBot="1">
+    <row r="2" spans="2:8" ht="15.75" thickBot="1"/>
+    <row r="3" spans="2:8" ht="16.5" thickBot="1">
       <c r="B3" s="15" t="s">
         <v>33</v>
       </c>
@@ -1720,8 +1765,11 @@
       <c r="G3" s="21" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" ht="16.5" thickBot="1">
+      <c r="H3" s="21" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="16.5" thickBot="1">
       <c r="B4" s="16" t="s">
         <v>34</v>
       </c>
@@ -1737,8 +1785,11 @@
       <c r="G4" s="20" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" ht="16.5" thickBot="1">
+      <c r="H4" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="16.5" thickBot="1">
       <c r="B5" s="16" t="s">
         <v>35</v>
       </c>
@@ -1754,8 +1805,11 @@
       <c r="G5" s="22" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" ht="16.5" thickBot="1">
+      <c r="H5" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="16.5" thickBot="1">
       <c r="B6" s="16" t="s">
         <v>36</v>
       </c>
@@ -1771,8 +1825,11 @@
       <c r="G6" s="22" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" ht="16.5" thickBot="1">
+      <c r="H6" s="20" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="16.5" thickBot="1">
       <c r="B7" s="16" t="s">
         <v>37</v>
       </c>
@@ -1788,8 +1845,11 @@
       <c r="G7" s="20" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" ht="16.5" thickBot="1">
+      <c r="H7" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="16.5" thickBot="1">
       <c r="B8" s="16" t="s">
         <v>38</v>
       </c>
@@ -1805,8 +1865,11 @@
       <c r="G8" s="20" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" ht="16.5" thickBot="1">
+      <c r="H8" s="20" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="16.5" thickBot="1">
       <c r="B9" s="16" t="s">
         <v>39</v>
       </c>
@@ -1822,8 +1885,11 @@
       <c r="G9" s="22" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" ht="16.5" thickBot="1">
+      <c r="H9" s="20" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="16.5" thickBot="1">
       <c r="B10" s="16" t="s">
         <v>40</v>
       </c>
@@ -1837,8 +1903,11 @@
       <c r="G10" s="20" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="11" spans="2:7" ht="16.5" thickBot="1">
+      <c r="H10" s="20" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="16.5" thickBot="1">
       <c r="B11" s="16" t="s">
         <v>41</v>
       </c>
@@ -1852,8 +1921,11 @@
       <c r="G11" s="22" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" ht="16.5" thickBot="1">
+      <c r="H11" s="20" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="16.5" thickBot="1">
       <c r="B12" s="16" t="s">
         <v>42</v>
       </c>
@@ -1863,8 +1935,11 @@
       <c r="G12" s="22" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" ht="16.5" thickBot="1">
+      <c r="H12" s="20" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="16.5" thickBot="1">
       <c r="B13" s="16" t="s">
         <v>43</v>
       </c>
@@ -1874,8 +1949,11 @@
       <c r="G13" s="20" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="14" spans="2:7" ht="16.5" thickBot="1">
+      <c r="H13" s="20" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="16.5" thickBot="1">
       <c r="B14" s="16" t="s">
         <v>44</v>
       </c>
@@ -1885,8 +1963,11 @@
       <c r="G14" s="20" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="15" spans="2:7" ht="16.5" thickBot="1">
+      <c r="H14" s="20" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="16.5" thickBot="1">
       <c r="B15" s="16" t="s">
         <v>45</v>
       </c>
@@ -1894,92 +1975,101 @@
       <c r="G15" s="20" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="16" spans="2:7" ht="16.5" thickBot="1">
+      <c r="H15" s="20" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="16.5" thickBot="1">
       <c r="B16" s="16" t="s">
         <v>46</v>
       </c>
       <c r="G16" s="20" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" ht="16.5" thickBot="1">
+      <c r="H16" s="20" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="16.5" thickBot="1">
       <c r="B17" s="16" t="s">
         <v>47</v>
       </c>
       <c r="G17" s="20"/>
-    </row>
-    <row r="18" spans="2:7" ht="16.5" thickBot="1">
+      <c r="H17" s="20" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="16.5" thickBot="1">
       <c r="B18" s="16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="16.5" thickBot="1">
+    <row r="19" spans="2:8" ht="16.5" thickBot="1">
       <c r="B19" s="16" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="16.5" thickBot="1">
+    <row r="20" spans="2:8" ht="16.5" thickBot="1">
       <c r="B20" s="16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="16.5" thickBot="1">
+    <row r="21" spans="2:8" ht="16.5" thickBot="1">
       <c r="B21" s="16" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="16.5" thickBot="1">
+    <row r="22" spans="2:8" ht="16.5" thickBot="1">
       <c r="B22" s="16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="16.5" thickBot="1">
+    <row r="23" spans="2:8" ht="16.5" thickBot="1">
       <c r="B23" s="16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="16.5" thickBot="1">
+    <row r="24" spans="2:8" ht="16.5" thickBot="1">
       <c r="B24" s="16" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="16.5" thickBot="1">
+    <row r="25" spans="2:8" ht="16.5" thickBot="1">
       <c r="B25" s="16" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="16.5" thickBot="1">
+    <row r="26" spans="2:8" ht="16.5" thickBot="1">
       <c r="B26" s="16" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="16.5" thickBot="1">
+    <row r="27" spans="2:8" ht="16.5" thickBot="1">
       <c r="B27" s="16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="16.5" thickBot="1">
+    <row r="28" spans="2:8" ht="16.5" thickBot="1">
       <c r="B28" s="16" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="16.5" thickBot="1">
+    <row r="29" spans="2:8" ht="16.5" thickBot="1">
       <c r="B29" s="16" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="16.5" thickBot="1">
+    <row r="30" spans="2:8" ht="16.5" thickBot="1">
       <c r="B30" s="16" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="2:7" ht="16.5" thickBot="1">
+    <row r="31" spans="2:8" ht="16.5" thickBot="1">
       <c r="B31" s="16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="16.5" thickBot="1">
+    <row r="32" spans="2:8" ht="16.5" thickBot="1">
       <c r="B32" s="16" t="s">
         <v>62</v>
       </c>
@@ -2943,16 +3033,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>